--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -7,6 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="x+OEM7pwrPxTM8QbpsKFxmbgRofyQ/FsA5xhDs6Jz34="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -854,8 +859,8 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1077,16 +1082,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.38"/>
-    <col customWidth="1" min="2" max="2" width="23.38"/>
-    <col customWidth="1" min="3" max="3" width="6.63"/>
-    <col customWidth="1" min="4" max="4" width="23.5"/>
-    <col customWidth="1" min="5" max="5" width="44.63"/>
+    <col customWidth="1" min="2" max="2" width="21.88"/>
+    <col customWidth="1" min="3" max="3" width="4.88"/>
+    <col customWidth="1" min="4" max="4" width="29.0"/>
+    <col customWidth="1" min="5" max="5" width="24.13"/>
     <col customWidth="1" min="6" max="6" width="13.38"/>
     <col customWidth="1" min="7" max="7" width="7.38"/>
     <col customWidth="1" min="8" max="8" width="20.38"/>
-    <col customWidth="1" min="9" max="9" width="16.25"/>
-    <col customWidth="1" min="10" max="10" width="38.5"/>
-    <col customWidth="1" min="11" max="11" width="7.38"/>
+    <col customWidth="1" min="9" max="9" width="17.38"/>
+    <col customWidth="1" min="10" max="10" width="17.0"/>
+    <col customWidth="1" min="11" max="11" width="10.38"/>
     <col customWidth="1" hidden="1" min="12" max="12" width="8.0"/>
     <col customWidth="1" min="13" max="13" width="7.38"/>
     <col customWidth="1" min="14" max="14" width="18.88"/>
@@ -2325,7 +2330,7 @@
         <v>3000.0</v>
       </c>
       <c r="G50" s="8">
-        <v>10.0</v>
+        <v>0.1</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>123</v>
@@ -2357,7 +2362,7 @@
         <v>4000.0</v>
       </c>
       <c r="G51" s="8">
-        <v>5.0</v>
+        <v>0.05</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>123</v>
@@ -2389,7 +2394,7 @@
         <v>5000.0</v>
       </c>
       <c r="G52" s="8">
-        <v>10.0</v>
+        <v>0.1</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>123</v>
@@ -2697,7 +2702,7 @@
         <v>9000.0</v>
       </c>
       <c r="G62" s="8">
-        <v>10.0</v>
+        <v>0.1</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>119</v>
@@ -3142,7 +3147,7 @@
         <v>4000.0</v>
       </c>
       <c r="G76" s="8">
-        <v>10.0</v>
+        <v>0.1</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>180</v>
@@ -3174,7 +3179,7 @@
         <v>5000.0</v>
       </c>
       <c r="G77" s="8">
-        <v>10.0</v>
+        <v>0.1</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>123</v>
@@ -3673,7 +3678,7 @@
         <v>2000.0</v>
       </c>
       <c r="G94" s="8">
-        <v>15.0</v>
+        <v>0.15</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>123</v>
